--- a/src/assets/excelSheets/edit.xlsx
+++ b/src/assets/excelSheets/edit.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\graduationCertificate\src\assets\excelSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DA4957-3A89-4D65-8287-A2591B06760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20014FF2-0944-4ABC-9935-2D049D4AA84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GraduationCertificate" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="229">
   <si>
     <t>الإسم</t>
   </si>
@@ -59,9 +59,6 @@
     <t>أميره عصام عبد المجيد محمد فضل</t>
   </si>
   <si>
-    <t>هاجر فتحي محروس أبو عيانه</t>
-  </si>
-  <si>
     <t>آيه الشحات صالح الضبع</t>
   </si>
   <si>
@@ -74,9 +71,6 @@
     <t>محمود محمد محمد فهمي الشرقاوي</t>
   </si>
   <si>
-    <t>محافظة الغربيه</t>
-  </si>
-  <si>
     <t>أحمد عبدالباسط المرسي محمد</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>ساره نعيم محمد فتحي راشد</t>
   </si>
   <si>
-    <t>أمل طلعت عبد القادر عبد الوهاب</t>
-  </si>
-  <si>
     <t>بسنت رمزى محمد احمد عيسى</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>الزهراء على محمد اسماعيل ابوعيانه</t>
   </si>
   <si>
-    <t>آيه مصطفي محمد محمد</t>
-  </si>
-  <si>
     <t>شروق عبدالباسط علوان محمد</t>
   </si>
   <si>
@@ -176,18 +164,12 @@
     <t>آيه السيد مصطفى الدسوقى عفيفى</t>
   </si>
   <si>
-    <t>مروه عبدالعظيم الدسوقى محمود على</t>
-  </si>
-  <si>
     <t>ساره جمعه على على ابو الاسعاد</t>
   </si>
   <si>
     <t>ابراهيم السيد صلاح حامد بدوى</t>
   </si>
   <si>
-    <t>محافظة كفرالشيخ</t>
-  </si>
-  <si>
     <t>16/09/2001</t>
   </si>
   <si>
@@ -401,154 +383,343 @@
     <t>محل الميلاد</t>
   </si>
   <si>
-    <t>28/10/2001</t>
-  </si>
-  <si>
-    <t>15/08/2001</t>
-  </si>
-  <si>
-    <t>25/03/2001</t>
-  </si>
-  <si>
-    <t>17/04/2001</t>
-  </si>
-  <si>
-    <t>07/10/2000</t>
-  </si>
-  <si>
-    <t>14/08/2000</t>
-  </si>
-  <si>
-    <t>01/03/2000</t>
-  </si>
-  <si>
-    <t>28/09/2000</t>
-  </si>
-  <si>
-    <t>21/12/1998</t>
-  </si>
-  <si>
-    <t>15/02/2001</t>
-  </si>
-  <si>
-    <t>01/05/2001</t>
-  </si>
-  <si>
-    <t>11/09/2001</t>
-  </si>
-  <si>
-    <t>19/01/2001</t>
-  </si>
-  <si>
-    <t>01/07/2001</t>
-  </si>
-  <si>
-    <t>01/10/2001</t>
-  </si>
-  <si>
-    <t>12/06/2000</t>
-  </si>
-  <si>
-    <t>15/09/2001</t>
-  </si>
-  <si>
-    <t>15/07/2000</t>
-  </si>
-  <si>
-    <t>01/08/2000</t>
-  </si>
-  <si>
-    <t>28/11/1999</t>
-  </si>
-  <si>
-    <t>01/02/2001</t>
-  </si>
-  <si>
-    <t>20/05/2001</t>
-  </si>
-  <si>
-    <t>19/10/1999</t>
-  </si>
-  <si>
-    <t>10/02/2002</t>
-  </si>
-  <si>
-    <t>30/07/2001</t>
-  </si>
-  <si>
-    <t>10/04/2001</t>
-  </si>
-  <si>
-    <t>07/09/2001</t>
-  </si>
-  <si>
-    <t>05/08/2000</t>
-  </si>
-  <si>
-    <t>16/02/2001</t>
-  </si>
-  <si>
-    <t>26/05/2000</t>
-  </si>
-  <si>
-    <t>10/03/2001</t>
-  </si>
-  <si>
-    <t>01/08/2001</t>
-  </si>
-  <si>
-    <t>15/12/2001</t>
-  </si>
-  <si>
-    <t>01/07/2000</t>
-  </si>
-  <si>
-    <t>06/06/2001</t>
-  </si>
-  <si>
-    <t>01/01/2002</t>
-  </si>
-  <si>
-    <t>09/08/2001</t>
-  </si>
-  <si>
-    <t>23/12/2001</t>
-  </si>
-  <si>
-    <t>21/02/2001</t>
-  </si>
-  <si>
-    <t>11/06/2001</t>
-  </si>
-  <si>
-    <t>07/03/2000</t>
-  </si>
-  <si>
-    <t>10/02/2001</t>
-  </si>
-  <si>
-    <t>11/01/2002</t>
-  </si>
-  <si>
-    <t>12/05/2001</t>
-  </si>
-  <si>
-    <t>14/09/2000</t>
-  </si>
-  <si>
-    <t>01/09/2001</t>
-  </si>
-  <si>
-    <t>10/02/2000</t>
-  </si>
-  <si>
-    <t>01/04/2001</t>
-  </si>
-  <si>
-    <t>18/03/2001</t>
-  </si>
-  <si>
-    <t>12/03/2002</t>
+    <t>هاجر فتحى محروس أبو عيانه</t>
+  </si>
+  <si>
+    <t>أمل  طلعت عبدالقادر عبدالوهاب</t>
+  </si>
+  <si>
+    <t>أيه مصطفي محمد محمد ابوشعيشع</t>
+  </si>
+  <si>
+    <t>مروة عبدالعظيم الدسوقى محمود على</t>
+  </si>
+  <si>
+    <t>رهف محمد احمد سالم الشيخ</t>
+  </si>
+  <si>
+    <t>نورهان محمد ابراهيم على الحدق</t>
+  </si>
+  <si>
+    <t>ريهام حسينى عبدالعاطى ذكى عبدالعال</t>
+  </si>
+  <si>
+    <t>ألاء حمام حلمى عبدالله يوسف</t>
+  </si>
+  <si>
+    <t>رندا عبدالمنعم رأفت السعيد</t>
+  </si>
+  <si>
+    <t>محمد شعبان الشربيني محمد شرف</t>
+  </si>
+  <si>
+    <t>أميرة السيد عبدالباسط عبدالله</t>
+  </si>
+  <si>
+    <t>أميره مسعد يوسف حسن البلقاسى</t>
+  </si>
+  <si>
+    <t>محمد راضي رشدي الباز الوهيدي</t>
+  </si>
+  <si>
+    <t>انجى عبدالله محمد عبدالله غنيم</t>
+  </si>
+  <si>
+    <t>مي اسامة فوزي ياقوت</t>
+  </si>
+  <si>
+    <t>سميرة الشاملى محمد البيلى</t>
+  </si>
+  <si>
+    <t>شروق سعد محمد عوض صلاح</t>
+  </si>
+  <si>
+    <t>آيه السيد فوزى حسين حموده</t>
+  </si>
+  <si>
+    <t>اسماء عصام محمد عبد اللطيف عاشور</t>
+  </si>
+  <si>
+    <t>أحمد إبراهيم نصر راشد يونس</t>
+  </si>
+  <si>
+    <t>مينا اشرف جورج عبدالمسيح</t>
+  </si>
+  <si>
+    <t>آلاء السيد محمد محمد شتا</t>
+  </si>
+  <si>
+    <t>اسماء فتوح عبدالسلام محمد حسين</t>
+  </si>
+  <si>
+    <t>اسماء سعيد بسيونى بدر</t>
+  </si>
+  <si>
+    <t>نرمين رأفت مصباح ابراهيم سالم</t>
+  </si>
+  <si>
+    <t>آيه هشام طه علي</t>
+  </si>
+  <si>
+    <t>آيه استفتاح محمد رياض</t>
+  </si>
+  <si>
+    <t>آلاء عبدالفتاح محمد محمد شعيشع</t>
+  </si>
+  <si>
+    <t>ابراهيم السيد عبد المعبود السيد</t>
+  </si>
+  <si>
+    <t>آلاء على عبدالغنى محمد عنانى</t>
+  </si>
+  <si>
+    <t>سهيله محمد ابوشعيشع عبدالعزيز</t>
+  </si>
+  <si>
+    <t>نهى السيد سعد محمد خليفه</t>
+  </si>
+  <si>
+    <t>عمرو الشحات محمد عرفه</t>
+  </si>
+  <si>
+    <t>سهيله احمد عبدالحليم الصاوي</t>
+  </si>
+  <si>
+    <t>شروق عوض حامد محمد</t>
+  </si>
+  <si>
+    <t>أسماء جمعه محمد أبوحطب</t>
+  </si>
+  <si>
+    <t>حامد ابراهيم حامد اسماعيل</t>
+  </si>
+  <si>
+    <t>حسام آمان على احمد على</t>
+  </si>
+  <si>
+    <t>الاء عصام احمد محمد عيد</t>
+  </si>
+  <si>
+    <t>ندى مصطفى الشهاوى محمد</t>
+  </si>
+  <si>
+    <t>محمد رزق سليم رزق</t>
+  </si>
+  <si>
+    <t>آيه ابوزيد احمد ابوزيد سليم</t>
+  </si>
+  <si>
+    <t>نرمين احمد الشحات مجاهد</t>
+  </si>
+  <si>
+    <t>مصطفى محمود عبدالتواب ابو المعاطى</t>
+  </si>
+  <si>
+    <t>منار حماده حسونه على عبداللطيف</t>
+  </si>
+  <si>
+    <t>ايه شحاته اسماعيل ابراهيم محروس</t>
+  </si>
+  <si>
+    <t>اسماء أنس رشاد اسماعيل القلفاط</t>
+  </si>
+  <si>
+    <t>رياض رياض احمد ابوحسن</t>
+  </si>
+  <si>
+    <t>ميرنا ناصر السيد السيد عوض</t>
+  </si>
+  <si>
+    <t>محمود رمضان محمود احمد خليفه</t>
+  </si>
+  <si>
+    <t>محمد عبد الحليم عبد الرؤف حسن كريم</t>
+  </si>
+  <si>
+    <t>اسماء كمال محمد القصير السترى</t>
+  </si>
+  <si>
+    <t>احمد غالب عبدالسميع عبدالقوى عبدالجيد</t>
+  </si>
+  <si>
+    <t>منار ابراهيم احمد احمد الشناوى</t>
+  </si>
+  <si>
+    <t>أمنيه السيد فؤاد عبدالعزيز البيه</t>
+  </si>
+  <si>
+    <t>كفرالشيخ</t>
+  </si>
+  <si>
+    <t>الخارج /السعودية</t>
+  </si>
+  <si>
+    <t>الخارج/السعوديه</t>
+  </si>
+  <si>
+    <t>بالخارج السعودية</t>
+  </si>
+  <si>
+    <t>الخارج الاردن</t>
+  </si>
+  <si>
+    <t>البحيرة</t>
+  </si>
+  <si>
+    <t>23/11/2001</t>
+  </si>
+  <si>
+    <t>30005221500802</t>
+  </si>
+  <si>
+    <t>30108218801021</t>
+  </si>
+  <si>
+    <t>30201078800488</t>
+  </si>
+  <si>
+    <t>30009011516868</t>
+  </si>
+  <si>
+    <t>30109181501126</t>
+  </si>
+  <si>
+    <t>30004031500265</t>
+  </si>
+  <si>
+    <t>29906051200711</t>
+  </si>
+  <si>
+    <t>29909101202922</t>
+  </si>
+  <si>
+    <t>30105011502424</t>
+  </si>
+  <si>
+    <t>29909201205694</t>
+  </si>
+  <si>
+    <t>30008011509989</t>
+  </si>
+  <si>
+    <t>29902181202443</t>
+  </si>
+  <si>
+    <t>30001011500162</t>
+  </si>
+  <si>
+    <t>30103211503805</t>
+  </si>
+  <si>
+    <t>30008191602361</t>
+  </si>
+  <si>
+    <t>30001011523103</t>
+  </si>
+  <si>
+    <t>30102101503854</t>
+  </si>
+  <si>
+    <t>30102061500636</t>
+  </si>
+  <si>
+    <t>30107101502027</t>
+  </si>
+  <si>
+    <t>30003291500688</t>
+  </si>
+  <si>
+    <t>30003091500381</t>
+  </si>
+  <si>
+    <t>30107231601841</t>
+  </si>
+  <si>
+    <t>30001011521542</t>
+  </si>
+  <si>
+    <t>30106061500305</t>
+  </si>
+  <si>
+    <t>30110011602953</t>
+  </si>
+  <si>
+    <t>30108041501308</t>
+  </si>
+  <si>
+    <t>30108251500703</t>
+  </si>
+  <si>
+    <t>30001141500369</t>
+  </si>
+  <si>
+    <t>30109011513596</t>
+  </si>
+  <si>
+    <t>30109191500284</t>
+  </si>
+  <si>
+    <t>30109181501207</t>
+  </si>
+  <si>
+    <t>29902201502961</t>
+  </si>
+  <si>
+    <t>30101171500333</t>
+  </si>
+  <si>
+    <t>30109151503418</t>
+  </si>
+  <si>
+    <t>30103218801143</t>
+  </si>
+  <si>
+    <t>30002031601506</t>
+  </si>
+  <si>
+    <t>30001218800077</t>
+  </si>
+  <si>
+    <t>30203011504186</t>
+  </si>
+  <si>
+    <t>29912201501022</t>
+  </si>
+  <si>
+    <t>29909091507916</t>
+  </si>
+  <si>
+    <t>30109201504003</t>
+  </si>
+  <si>
+    <t>30103081800462</t>
+  </si>
+  <si>
+    <t>30203011502388</t>
+  </si>
+  <si>
+    <t>30011231600473</t>
+  </si>
+  <si>
+    <t>30201011524249</t>
+  </si>
+  <si>
+    <t>29904181500676</t>
+  </si>
+  <si>
+    <t>30006281500093</t>
+  </si>
+  <si>
+    <t>29912191500626</t>
+  </si>
+  <si>
+    <t>30002201504535</t>
+  </si>
+  <si>
+    <t>30002151501327</t>
+  </si>
+  <si>
+    <t>30111231500066</t>
   </si>
 </sst>
 </file>
@@ -849,11 +1020,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -865,14 +1036,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -883,14 +1054,14 @@
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -907,11 +1078,8 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -919,14 +1087,8 @@
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -934,14 +1096,8 @@
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>124</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
@@ -949,764 +1105,952 @@
         <v>7</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>125</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>126</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>128</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>129</v>
-      </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>131</v>
-      </c>
       <c r="G12" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>132</v>
+        <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>133</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>134</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>136</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>139</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>140</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
+        <v>23</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>142</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>143</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>144</v>
-      </c>
       <c r="G25" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>145</v>
-      </c>
       <c r="G26" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>146</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>147</v>
-      </c>
       <c r="G28" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>148</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>150</v>
-      </c>
       <c r="G31" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>151</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" t="s">
-        <v>140</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" t="s">
-        <v>152</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>153</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>154</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" t="s">
-        <v>4</v>
-      </c>
-      <c r="E37" t="s">
-        <v>155</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" t="s">
-        <v>156</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C39" s="2"/>
-      <c r="D39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
-        <v>157</v>
-      </c>
       <c r="G39" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" t="s">
-        <v>158</v>
-      </c>
       <c r="G40" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>159</v>
-      </c>
       <c r="G41" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>160</v>
-      </c>
       <c r="G42" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" t="s">
-        <v>161</v>
-      </c>
       <c r="G43" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" t="s">
-        <v>51</v>
+        <v>171</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>162</v>
-      </c>
       <c r="G45" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" t="s">
-        <v>148</v>
-      </c>
       <c r="G46" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>166</v>
-      </c>
       <c r="G50" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
       <c r="G51" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>136</v>
-      </c>
       <c r="G52" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>168</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>169</v>
-      </c>
       <c r="G54" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>170</v>
-      </c>
       <c r="G55" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" t="s">
+      <c r="G56" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G69" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G75" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G76" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G80" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G82" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G83" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G85" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G86" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G87" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G88" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G89" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G90" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G91" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G93" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G94" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G95" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G96" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G98" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G99" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G103" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G104" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G106" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>75</v>
+      <c r="E108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/excelSheets/edit.xlsx
+++ b/src/assets/excelSheets/edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20014FF2-0944-4ABC-9935-2D049D4AA84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1BD201-F845-44F6-AFB1-753894282D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="316">
   <si>
     <t>الإسم</t>
   </si>
@@ -720,6 +720,267 @@
   </si>
   <si>
     <t>30111231500066</t>
+  </si>
+  <si>
+    <t>28/10/2001</t>
+  </si>
+  <si>
+    <t>15/08/2001</t>
+  </si>
+  <si>
+    <t>25/03/2001</t>
+  </si>
+  <si>
+    <t>17/04/2001</t>
+  </si>
+  <si>
+    <t>07/10/2000</t>
+  </si>
+  <si>
+    <t>14/08/2000</t>
+  </si>
+  <si>
+    <t>01/03/2000</t>
+  </si>
+  <si>
+    <t>28/09/2000</t>
+  </si>
+  <si>
+    <t>21/12/1998</t>
+  </si>
+  <si>
+    <t>15/02/2001</t>
+  </si>
+  <si>
+    <t>01/05/2001</t>
+  </si>
+  <si>
+    <t>11/09/2001</t>
+  </si>
+  <si>
+    <t>19/01/2001</t>
+  </si>
+  <si>
+    <t>01/07/2001</t>
+  </si>
+  <si>
+    <t>01/10/2001</t>
+  </si>
+  <si>
+    <t>12/06/2000</t>
+  </si>
+  <si>
+    <t>15/09/2001</t>
+  </si>
+  <si>
+    <t>15/07/2000</t>
+  </si>
+  <si>
+    <t>01/08/2000</t>
+  </si>
+  <si>
+    <t>28/11/1999</t>
+  </si>
+  <si>
+    <t>01/02/2001</t>
+  </si>
+  <si>
+    <t>20/05/2001</t>
+  </si>
+  <si>
+    <t>19/10/1999</t>
+  </si>
+  <si>
+    <t>10/02/2002</t>
+  </si>
+  <si>
+    <t>30/07/2001</t>
+  </si>
+  <si>
+    <t>10/04/2001</t>
+  </si>
+  <si>
+    <t>07/09/2001</t>
+  </si>
+  <si>
+    <t>05/08/2000</t>
+  </si>
+  <si>
+    <t>16/02/2001</t>
+  </si>
+  <si>
+    <t>26/05/2000</t>
+  </si>
+  <si>
+    <t>10/03/2001</t>
+  </si>
+  <si>
+    <t>01/08/2001</t>
+  </si>
+  <si>
+    <t>15/12/2001</t>
+  </si>
+  <si>
+    <t>01/07/2000</t>
+  </si>
+  <si>
+    <t>06/06/2001</t>
+  </si>
+  <si>
+    <t>01/01/2002</t>
+  </si>
+  <si>
+    <t>09/08/2001</t>
+  </si>
+  <si>
+    <t>23/12/2001</t>
+  </si>
+  <si>
+    <t>21/02/2001</t>
+  </si>
+  <si>
+    <t>11/06/2001</t>
+  </si>
+  <si>
+    <t>07/03/2000</t>
+  </si>
+  <si>
+    <t>10/02/2001</t>
+  </si>
+  <si>
+    <t>11/01/2002</t>
+  </si>
+  <si>
+    <t>12/05/2001</t>
+  </si>
+  <si>
+    <t>14/09/2000</t>
+  </si>
+  <si>
+    <t>01/09/2001</t>
+  </si>
+  <si>
+    <t>10/02/2000</t>
+  </si>
+  <si>
+    <t>01/04/2001</t>
+  </si>
+  <si>
+    <t>18/03/2001</t>
+  </si>
+  <si>
+    <t>12/03/2002</t>
+  </si>
+  <si>
+    <t>21/08/2001</t>
+  </si>
+  <si>
+    <t>07/01/2002</t>
+  </si>
+  <si>
+    <t>01/09/2000</t>
+  </si>
+  <si>
+    <t>18/09/2001</t>
+  </si>
+  <si>
+    <t>03/04/2000</t>
+  </si>
+  <si>
+    <t>05/06/1999</t>
+  </si>
+  <si>
+    <t>10/09/1999</t>
+  </si>
+  <si>
+    <t>20/09/1999</t>
+  </si>
+  <si>
+    <t>18/02/1999</t>
+  </si>
+  <si>
+    <t>01/01/2000</t>
+  </si>
+  <si>
+    <t>21/03/2001</t>
+  </si>
+  <si>
+    <t>19/08/2000</t>
+  </si>
+  <si>
+    <t>06/02/2001</t>
+  </si>
+  <si>
+    <t>10/07/2001</t>
+  </si>
+  <si>
+    <t>29/03/2000</t>
+  </si>
+  <si>
+    <t>09/03/2000</t>
+  </si>
+  <si>
+    <t>22/05/2000</t>
+  </si>
+  <si>
+    <t>23/07/2001</t>
+  </si>
+  <si>
+    <t>04/08/2001</t>
+  </si>
+  <si>
+    <t>25/08/2001</t>
+  </si>
+  <si>
+    <t>14/01/2000</t>
+  </si>
+  <si>
+    <t>19/09/2001</t>
+  </si>
+  <si>
+    <t>20/02/1999</t>
+  </si>
+  <si>
+    <t>17/01/2001</t>
+  </si>
+  <si>
+    <t>03/02/2000</t>
+  </si>
+  <si>
+    <t>21/01/2000</t>
+  </si>
+  <si>
+    <t>01/03/2002</t>
+  </si>
+  <si>
+    <t>20/12/1999</t>
+  </si>
+  <si>
+    <t>09/09/1999</t>
+  </si>
+  <si>
+    <t>20/09/2001</t>
+  </si>
+  <si>
+    <t>08/03/2001</t>
+  </si>
+  <si>
+    <t>23/11/2000</t>
+  </si>
+  <si>
+    <t>18/04/1999</t>
+  </si>
+  <si>
+    <t>28/06/2000</t>
+  </si>
+  <si>
+    <t>19/12/1999</t>
+  </si>
+  <si>
+    <t>20/02/2000</t>
+  </si>
+  <si>
+    <t>15/02/2000</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1285,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomLeft" activeCell="D101" sqref="D101:D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,6 +1339,9 @@
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E3" t="s">
+        <v>229</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>63</v>
       </c>
@@ -1087,6 +1351,12 @@
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>230</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>62</v>
       </c>
@@ -1096,6 +1366,12 @@
         <v>6</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>61</v>
       </c>
@@ -1105,6 +1381,12 @@
         <v>7</v>
       </c>
       <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>232</v>
+      </c>
       <c r="G6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1114,6 +1396,12 @@
         <v>116</v>
       </c>
       <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>233</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>65</v>
       </c>
@@ -1123,6 +1411,12 @@
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>234</v>
+      </c>
       <c r="G8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1132,6 +1426,12 @@
         <v>9</v>
       </c>
       <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>235</v>
+      </c>
       <c r="G9" s="3" t="s">
         <v>67</v>
       </c>
@@ -1141,6 +1441,12 @@
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>236</v>
+      </c>
       <c r="G10" s="3" t="s">
         <v>68</v>
       </c>
@@ -1153,6 +1459,9 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E11" t="s">
+        <v>237</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>114</v>
       </c>
@@ -1162,6 +1471,12 @@
         <v>12</v>
       </c>
       <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
@@ -1174,6 +1489,9 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
       <c r="G13" s="3" t="s">
         <v>112</v>
       </c>
@@ -1183,6 +1501,12 @@
         <v>15</v>
       </c>
       <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>240</v>
+      </c>
       <c r="G14" s="3" t="s">
         <v>111</v>
       </c>
@@ -1192,6 +1516,12 @@
         <v>16</v>
       </c>
       <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>241</v>
+      </c>
       <c r="G15" s="3" t="s">
         <v>110</v>
       </c>
@@ -1201,6 +1531,12 @@
         <v>17</v>
       </c>
       <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>242</v>
+      </c>
       <c r="G16" s="3" t="s">
         <v>109</v>
       </c>
@@ -1210,6 +1546,12 @@
         <v>18</v>
       </c>
       <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
       <c r="G17" s="3" t="s">
         <v>108</v>
       </c>
@@ -1222,6 +1564,9 @@
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E18" t="s">
+        <v>244</v>
+      </c>
       <c r="G18" s="3" t="s">
         <v>107</v>
       </c>
@@ -1231,6 +1576,12 @@
         <v>117</v>
       </c>
       <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>245</v>
+      </c>
       <c r="G19" s="3" t="s">
         <v>106</v>
       </c>
@@ -1240,6 +1591,12 @@
         <v>20</v>
       </c>
       <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>246</v>
+      </c>
       <c r="G20" s="3" t="s">
         <v>105</v>
       </c>
@@ -1249,6 +1606,12 @@
         <v>21</v>
       </c>
       <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>247</v>
+      </c>
       <c r="G21" s="3" t="s">
         <v>104</v>
       </c>
@@ -1261,6 +1624,9 @@
       <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E22" t="s">
+        <v>248</v>
+      </c>
       <c r="G22" s="3" t="s">
         <v>103</v>
       </c>
@@ -1270,6 +1636,12 @@
         <v>24</v>
       </c>
       <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>249</v>
+      </c>
       <c r="G23" s="3" t="s">
         <v>102</v>
       </c>
@@ -1279,6 +1651,12 @@
         <v>25</v>
       </c>
       <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>250</v>
+      </c>
       <c r="G24" s="3" t="s">
         <v>101</v>
       </c>
@@ -1288,6 +1666,12 @@
         <v>26</v>
       </c>
       <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
       <c r="G25" s="3" t="s">
         <v>100</v>
       </c>
@@ -1297,6 +1681,12 @@
         <v>27</v>
       </c>
       <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>252</v>
+      </c>
       <c r="G26" s="3" t="s">
         <v>99</v>
       </c>
@@ -1306,6 +1696,12 @@
         <v>28</v>
       </c>
       <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>253</v>
+      </c>
       <c r="G27" s="3" t="s">
         <v>98</v>
       </c>
@@ -1315,6 +1711,12 @@
         <v>29</v>
       </c>
       <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>254</v>
+      </c>
       <c r="G28" s="3" t="s">
         <v>97</v>
       </c>
@@ -1324,6 +1726,12 @@
         <v>30</v>
       </c>
       <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
       <c r="G29" s="3" t="s">
         <v>96</v>
       </c>
@@ -1336,6 +1744,9 @@
       <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E30" t="s">
+        <v>256</v>
+      </c>
       <c r="G30" s="3" t="s">
         <v>95</v>
       </c>
@@ -1345,6 +1756,12 @@
         <v>33</v>
       </c>
       <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>257</v>
+      </c>
       <c r="G31" s="3" t="s">
         <v>94</v>
       </c>
@@ -1354,6 +1771,12 @@
         <v>118</v>
       </c>
       <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>258</v>
+      </c>
       <c r="G32" s="3" t="s">
         <v>93</v>
       </c>
@@ -1363,6 +1786,12 @@
         <v>34</v>
       </c>
       <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>247</v>
+      </c>
       <c r="G33" s="3" t="s">
         <v>92</v>
       </c>
@@ -1372,6 +1801,12 @@
         <v>35</v>
       </c>
       <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>259</v>
+      </c>
       <c r="G34" s="3" t="s">
         <v>91</v>
       </c>
@@ -1381,6 +1816,12 @@
         <v>36</v>
       </c>
       <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>260</v>
+      </c>
       <c r="G35" s="3" t="s">
         <v>90</v>
       </c>
@@ -1390,6 +1831,12 @@
         <v>37</v>
       </c>
       <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>261</v>
+      </c>
       <c r="G36" s="3" t="s">
         <v>89</v>
       </c>
@@ -1399,6 +1846,12 @@
         <v>38</v>
       </c>
       <c r="C37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
       <c r="G37" s="3" t="s">
         <v>88</v>
       </c>
@@ -1408,6 +1861,12 @@
         <v>39</v>
       </c>
       <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>263</v>
+      </c>
       <c r="G38" s="3" t="s">
         <v>87</v>
       </c>
@@ -1417,6 +1876,12 @@
         <v>40</v>
       </c>
       <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
       <c r="G39" s="3" t="s">
         <v>86</v>
       </c>
@@ -1426,6 +1891,12 @@
         <v>41</v>
       </c>
       <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>265</v>
+      </c>
       <c r="G40" s="3" t="s">
         <v>85</v>
       </c>
@@ -1435,6 +1906,12 @@
         <v>42</v>
       </c>
       <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>266</v>
+      </c>
       <c r="G41" s="3" t="s">
         <v>84</v>
       </c>
@@ -1444,6 +1921,12 @@
         <v>119</v>
       </c>
       <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>267</v>
+      </c>
       <c r="G42" s="3" t="s">
         <v>83</v>
       </c>
@@ -1453,6 +1936,12 @@
         <v>43</v>
       </c>
       <c r="C43" s="2"/>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>268</v>
+      </c>
       <c r="G43" s="3" t="s">
         <v>82</v>
       </c>
@@ -1465,7 +1954,7 @@
       <c r="D44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
         <v>45</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -1477,6 +1966,12 @@
         <v>46</v>
       </c>
       <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>269</v>
+      </c>
       <c r="G45" s="3" t="s">
         <v>80</v>
       </c>
@@ -1486,6 +1981,12 @@
         <v>47</v>
       </c>
       <c r="C46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>255</v>
+      </c>
       <c r="G46" s="3" t="s">
         <v>79</v>
       </c>
@@ -1498,6 +1999,9 @@
       <c r="D47" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="E47" t="s">
+        <v>270</v>
+      </c>
       <c r="G47" s="3" t="s">
         <v>78</v>
       </c>
@@ -1507,6 +2011,12 @@
         <v>50</v>
       </c>
       <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>271</v>
+      </c>
       <c r="G48" s="3" t="s">
         <v>77</v>
       </c>
@@ -1519,6 +2029,9 @@
       <c r="D49" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E49" t="s">
+        <v>272</v>
+      </c>
       <c r="G49" s="3" t="s">
         <v>76</v>
       </c>
@@ -1528,6 +2041,12 @@
         <v>53</v>
       </c>
       <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>273</v>
+      </c>
       <c r="G50" s="3" t="s">
         <v>75</v>
       </c>
@@ -1537,6 +2056,12 @@
         <v>54</v>
       </c>
       <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>274</v>
+      </c>
       <c r="G51" s="3" t="s">
         <v>74</v>
       </c>
@@ -1546,6 +2071,12 @@
         <v>55</v>
       </c>
       <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
       <c r="G52" s="3" t="s">
         <v>73</v>
       </c>
@@ -1555,6 +2086,12 @@
         <v>56</v>
       </c>
       <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>275</v>
+      </c>
       <c r="G53" s="3" t="s">
         <v>72</v>
       </c>
@@ -1564,6 +2101,12 @@
         <v>57</v>
       </c>
       <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>276</v>
+      </c>
       <c r="G54" s="3" t="s">
         <v>71</v>
       </c>
@@ -1573,6 +2116,12 @@
         <v>58</v>
       </c>
       <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>277</v>
+      </c>
       <c r="G55" s="3" t="s">
         <v>70</v>
       </c>
@@ -1582,6 +2131,12 @@
         <v>59</v>
       </c>
       <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>278</v>
+      </c>
       <c r="G56" s="3" t="s">
         <v>69</v>
       </c>
@@ -1593,6 +2148,9 @@
       <c r="D57" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="E57" t="s">
+        <v>279</v>
+      </c>
       <c r="G57" t="s">
         <v>179</v>
       </c>
@@ -1604,6 +2162,9 @@
       <c r="D58" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="E58" t="s">
+        <v>280</v>
+      </c>
       <c r="G58" t="s">
         <v>180</v>
       </c>
@@ -1612,6 +2173,12 @@
       <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>281</v>
+      </c>
       <c r="G59" t="s">
         <v>181</v>
       </c>
@@ -1620,6 +2187,12 @@
       <c r="B60" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="D60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>282</v>
+      </c>
       <c r="G60" t="s">
         <v>182</v>
       </c>
@@ -1628,6 +2201,12 @@
       <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>283</v>
+      </c>
       <c r="G61" t="s">
         <v>183</v>
       </c>
@@ -1639,6 +2218,9 @@
       <c r="D62" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E62" t="s">
+        <v>284</v>
+      </c>
       <c r="G62" t="s">
         <v>184</v>
       </c>
@@ -1650,6 +2232,9 @@
       <c r="D63" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E63" t="s">
+        <v>285</v>
+      </c>
       <c r="G63" t="s">
         <v>185</v>
       </c>
@@ -1658,6 +2243,12 @@
       <c r="B64" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>239</v>
+      </c>
       <c r="G64" t="s">
         <v>186</v>
       </c>
@@ -1669,6 +2260,9 @@
       <c r="D65" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E65" t="s">
+        <v>286</v>
+      </c>
       <c r="G65" t="s">
         <v>187</v>
       </c>
@@ -1677,6 +2271,12 @@
       <c r="B66" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>247</v>
+      </c>
       <c r="G66" t="s">
         <v>188</v>
       </c>
@@ -1688,6 +2288,9 @@
       <c r="D67" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E67" t="s">
+        <v>287</v>
+      </c>
       <c r="G67" t="s">
         <v>189</v>
       </c>
@@ -1696,6 +2299,12 @@
       <c r="B68" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>288</v>
+      </c>
       <c r="G68" t="s">
         <v>190</v>
       </c>
@@ -1704,6 +2313,12 @@
       <c r="B69" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>289</v>
+      </c>
       <c r="G69" t="s">
         <v>191</v>
       </c>
@@ -1715,6 +2330,9 @@
       <c r="D70" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E70" t="s">
+        <v>290</v>
+      </c>
       <c r="G70" t="s">
         <v>192</v>
       </c>
@@ -1723,6 +2341,12 @@
       <c r="B71" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>288</v>
+      </c>
       <c r="G71" t="s">
         <v>193</v>
       </c>
@@ -1731,6 +2355,12 @@
       <c r="B72" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>270</v>
+      </c>
       <c r="G72" t="s">
         <v>194</v>
       </c>
@@ -1739,6 +2369,12 @@
       <c r="B73" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>291</v>
+      </c>
       <c r="G73" t="s">
         <v>195</v>
       </c>
@@ -1747,6 +2383,12 @@
       <c r="B74" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>292</v>
+      </c>
       <c r="G74" t="s">
         <v>196</v>
       </c>
@@ -1755,6 +2397,12 @@
       <c r="B75" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>293</v>
+      </c>
       <c r="G75" t="s">
         <v>197</v>
       </c>
@@ -1763,6 +2411,12 @@
       <c r="B76" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>294</v>
+      </c>
       <c r="G76" t="s">
         <v>198</v>
       </c>
@@ -1771,6 +2425,12 @@
       <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>295</v>
+      </c>
       <c r="G77" t="s">
         <v>178</v>
       </c>
@@ -1782,6 +2442,9 @@
       <c r="D78" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E78" t="s">
+        <v>296</v>
+      </c>
       <c r="G78" t="s">
         <v>199</v>
       </c>
@@ -1790,6 +2453,12 @@
       <c r="B79" s="2" t="s">
         <v>142</v>
       </c>
+      <c r="D79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>288</v>
+      </c>
       <c r="G79" t="s">
         <v>200</v>
       </c>
@@ -1798,6 +2467,12 @@
       <c r="B80" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>263</v>
+      </c>
       <c r="G80" t="s">
         <v>201</v>
       </c>
@@ -1809,6 +2484,9 @@
       <c r="D81" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E81" t="s">
+        <v>243</v>
+      </c>
       <c r="G81" t="s">
         <v>202</v>
       </c>
@@ -1817,6 +2495,12 @@
       <c r="B82" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>297</v>
+      </c>
       <c r="G82" t="s">
         <v>203</v>
       </c>
@@ -1825,6 +2509,12 @@
       <c r="B83" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="D83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" t="s">
+        <v>298</v>
+      </c>
       <c r="G83" t="s">
         <v>204</v>
       </c>
@@ -1833,6 +2523,12 @@
       <c r="B84" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>299</v>
+      </c>
       <c r="G84" t="s">
         <v>205</v>
       </c>
@@ -1841,6 +2537,12 @@
       <c r="B85" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>274</v>
+      </c>
       <c r="G85" t="s">
         <v>206</v>
       </c>
@@ -1849,6 +2551,12 @@
       <c r="B86" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>300</v>
+      </c>
       <c r="G86" t="s">
         <v>207</v>
       </c>
@@ -1857,6 +2565,12 @@
       <c r="B87" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" t="s">
+        <v>282</v>
+      </c>
       <c r="G87" t="s">
         <v>208</v>
       </c>
@@ -1865,6 +2579,12 @@
       <c r="B88" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>301</v>
+      </c>
       <c r="G88" t="s">
         <v>209</v>
       </c>
@@ -1873,6 +2593,12 @@
       <c r="B89" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" t="s">
+        <v>302</v>
+      </c>
       <c r="G89" t="s">
         <v>210</v>
       </c>
@@ -1881,6 +2607,12 @@
       <c r="B90" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>245</v>
+      </c>
       <c r="G90" t="s">
         <v>211</v>
       </c>
@@ -1892,6 +2624,9 @@
       <c r="D91" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="E91" t="s">
+        <v>289</v>
+      </c>
       <c r="G91" t="s">
         <v>212</v>
       </c>
@@ -1903,6 +2638,9 @@
       <c r="D92" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E92" t="s">
+        <v>303</v>
+      </c>
       <c r="G92" t="s">
         <v>213</v>
       </c>
@@ -1914,6 +2652,9 @@
       <c r="D93" s="2" t="s">
         <v>175</v>
       </c>
+      <c r="E93" t="s">
+        <v>304</v>
+      </c>
       <c r="G93" t="s">
         <v>214</v>
       </c>
@@ -1922,6 +2663,12 @@
       <c r="B94" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>305</v>
+      </c>
       <c r="G94" t="s">
         <v>215</v>
       </c>
@@ -1930,6 +2677,12 @@
       <c r="B95" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="D95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>306</v>
+      </c>
       <c r="G95" t="s">
         <v>216</v>
       </c>
@@ -1938,6 +2691,12 @@
       <c r="B96" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>307</v>
+      </c>
       <c r="G96" t="s">
         <v>217</v>
       </c>
@@ -1946,6 +2705,12 @@
       <c r="B97" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>308</v>
+      </c>
       <c r="G97" t="s">
         <v>218</v>
       </c>
@@ -1957,6 +2722,9 @@
       <c r="D98" s="2" t="s">
         <v>176</v>
       </c>
+      <c r="E98" t="s">
+        <v>309</v>
+      </c>
       <c r="G98" t="s">
         <v>219</v>
       </c>
@@ -1965,6 +2733,12 @@
       <c r="B99" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>305</v>
+      </c>
       <c r="G99" t="s">
         <v>220</v>
       </c>
@@ -1976,6 +2750,9 @@
       <c r="D100" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E100" t="s">
+        <v>310</v>
+      </c>
       <c r="G100" t="s">
         <v>221</v>
       </c>
@@ -1984,6 +2761,12 @@
       <c r="B101" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>264</v>
+      </c>
       <c r="G101" t="s">
         <v>222</v>
       </c>
@@ -1992,6 +2775,12 @@
       <c r="B102" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>311</v>
+      </c>
       <c r="G102" t="s">
         <v>223</v>
       </c>
@@ -2000,6 +2789,12 @@
       <c r="B103" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>312</v>
+      </c>
       <c r="G103" t="s">
         <v>224</v>
       </c>
@@ -2008,6 +2803,12 @@
       <c r="B104" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E104" t="s">
+        <v>313</v>
+      </c>
       <c r="G104" t="s">
         <v>225</v>
       </c>
@@ -2016,6 +2817,12 @@
       <c r="B105" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>314</v>
+      </c>
       <c r="G105" t="s">
         <v>226</v>
       </c>
@@ -2024,6 +2831,12 @@
       <c r="B106" s="2" t="s">
         <v>169</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>315</v>
+      </c>
       <c r="G106" t="s">
         <v>227</v>
       </c>
@@ -2035,6 +2848,9 @@
       <c r="D107" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E107" t="s">
+        <v>310</v>
+      </c>
       <c r="G107" t="s">
         <v>221</v>
       </c>
@@ -2046,7 +2862,7 @@
       <c r="D108" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" t="s">
         <v>177</v>
       </c>
       <c r="G108" t="s">

--- a/src/assets/excelSheets/edit.xlsx
+++ b/src/assets/excelSheets/edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02338912-8E23-4E24-850C-ED590C683BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B7913-F0FA-40A0-9AE6-5FBA1EF5093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="469">
   <si>
     <t>الإسم</t>
   </si>
@@ -1089,6 +1089,357 @@
   </si>
   <si>
     <t>18/08/2001</t>
+  </si>
+  <si>
+    <t>احمد عاطف ابراهيم رجب مجاهد</t>
+  </si>
+  <si>
+    <t>آيه شكرى محمود بلتاجى الدسوقى</t>
+  </si>
+  <si>
+    <t>نجلاء فؤاد عبدالحميد ابراهيم</t>
+  </si>
+  <si>
+    <t>هاله على زيدان محمد دره</t>
+  </si>
+  <si>
+    <t>آيه طارق احمد بسيونى</t>
+  </si>
+  <si>
+    <t>آيه حمدى على حمود</t>
+  </si>
+  <si>
+    <t>نرمين احمد الشحات مجاهد اسماعيل</t>
+  </si>
+  <si>
+    <t>أيه مسعد عبد المجيد على حسن</t>
+  </si>
+  <si>
+    <t>ليلى محمد حامد عبدﷲ ابراهيم</t>
+  </si>
+  <si>
+    <t>أمنيه عادل كمال على عجاجه</t>
+  </si>
+  <si>
+    <t>ريهام محمد عوض على ابراهيم القن</t>
+  </si>
+  <si>
+    <t>احمد السيد علي مصطفي عبد الحميد</t>
+  </si>
+  <si>
+    <t>علا عبدالباسط عبدالواحد المغازى</t>
+  </si>
+  <si>
+    <t>سالي زين العابدين السعداوى بسيونى ركه</t>
+  </si>
+  <si>
+    <t>ولاء مصطفى الأنور السيد عابد</t>
+  </si>
+  <si>
+    <t>آلاء مصطفى السعيد مصطفى الموافى</t>
+  </si>
+  <si>
+    <t>سمر عبد الفتاح كمال محمد على</t>
+  </si>
+  <si>
+    <t>آلاء شحاته غريب الصياد</t>
+  </si>
+  <si>
+    <t>أسماء عبدالبديع فوزى عبدالعزيز القربه</t>
+  </si>
+  <si>
+    <t>ميرهان محمد السيد عبد الجواد فرج حنيش</t>
+  </si>
+  <si>
+    <t>حبيبه احمد على احمد عبده</t>
+  </si>
+  <si>
+    <t>نيره محمود غازى ابراهيم شاهين</t>
+  </si>
+  <si>
+    <t>ايمان السعيد يوسف محمد الحكيم</t>
+  </si>
+  <si>
+    <t>ايمان محمد حامد احمد</t>
+  </si>
+  <si>
+    <t>آيه منصور محمد الصاوى نوار</t>
+  </si>
+  <si>
+    <t>فارس محمد ابوزيد حسن غازى</t>
+  </si>
+  <si>
+    <t>عبداللاه عبدالمجيد عبدالله مصطفى</t>
+  </si>
+  <si>
+    <t>نسمه عبد الناصر مسعد الخطيب</t>
+  </si>
+  <si>
+    <t>بلال عبدالحق معوض ابوسكين</t>
+  </si>
+  <si>
+    <t>آيه محمد سليمان عبدالله</t>
+  </si>
+  <si>
+    <t>نورهان محمد احمد محمد</t>
+  </si>
+  <si>
+    <t>نورهان صبرى محمد محمود الشرقاوى</t>
+  </si>
+  <si>
+    <t>ندي احمد فؤاد عبد المولي محمد</t>
+  </si>
+  <si>
+    <t>آيه جمال السعيد محمد الشرقاوى</t>
+  </si>
+  <si>
+    <t>ايناس عبده السيد عبده النعيري</t>
+  </si>
+  <si>
+    <t>نرمين حمدى محمد محمد قنبر</t>
+  </si>
+  <si>
+    <t>نورهان حسن احمد محمد</t>
+  </si>
+  <si>
+    <t>ايمان حامد حسن البيلي وهبه</t>
+  </si>
+  <si>
+    <t>محمود درويش عبد المعبود الرويني</t>
+  </si>
+  <si>
+    <t>رانيا فريد عبدالله عبدالغنى شوشه</t>
+  </si>
+  <si>
+    <t>رهام عبدالله عبدالحليم محمد غنيم</t>
+  </si>
+  <si>
+    <t>ايه وزير السعيد محمد ابو حطب</t>
+  </si>
+  <si>
+    <t>الخارج/ السعودية</t>
+  </si>
+  <si>
+    <t>محافظة مطروح / مرسى مطروح</t>
+  </si>
+  <si>
+    <t>الاسكندرية</t>
+  </si>
+  <si>
+    <t>30110181802051</t>
+  </si>
+  <si>
+    <t>30101011519143</t>
+  </si>
+  <si>
+    <t>30007011509362</t>
+  </si>
+  <si>
+    <t>30009191501308</t>
+  </si>
+  <si>
+    <t>29905011508768</t>
+  </si>
+  <si>
+    <t>30105011500405</t>
+  </si>
+  <si>
+    <t>30107151502982</t>
+  </si>
+  <si>
+    <t>30111201500126</t>
+  </si>
+  <si>
+    <t>30103141500846</t>
+  </si>
+  <si>
+    <t>30001011523502</t>
+  </si>
+  <si>
+    <t>30105211202697</t>
+  </si>
+  <si>
+    <t>30001301600047</t>
+  </si>
+  <si>
+    <t>30009101503587</t>
+  </si>
+  <si>
+    <t>30103301500066</t>
+  </si>
+  <si>
+    <t>30011031500504</t>
+  </si>
+  <si>
+    <t>30008151504367</t>
+  </si>
+  <si>
+    <t>30008171500864</t>
+  </si>
+  <si>
+    <t>30110011540885</t>
+  </si>
+  <si>
+    <t>30103018800126</t>
+  </si>
+  <si>
+    <t>29912151501522</t>
+  </si>
+  <si>
+    <t>30008011505827</t>
+  </si>
+  <si>
+    <t>30012111500587</t>
+  </si>
+  <si>
+    <t>30101181600085</t>
+  </si>
+  <si>
+    <t>30102251500705</t>
+  </si>
+  <si>
+    <t>30002231500798</t>
+  </si>
+  <si>
+    <t>30001011508139</t>
+  </si>
+  <si>
+    <t>30105161500527</t>
+  </si>
+  <si>
+    <t>30006011507878</t>
+  </si>
+  <si>
+    <t>30009201500585</t>
+  </si>
+  <si>
+    <t>30107193300069</t>
+  </si>
+  <si>
+    <t>30005071501368</t>
+  </si>
+  <si>
+    <t>30201291500447</t>
+  </si>
+  <si>
+    <t>30109031501608</t>
+  </si>
+  <si>
+    <t>30008011505665</t>
+  </si>
+  <si>
+    <t>30001031500169</t>
+  </si>
+  <si>
+    <t>29911070201226</t>
+  </si>
+  <si>
+    <t>30003251500162</t>
+  </si>
+  <si>
+    <t>30101011555794</t>
+  </si>
+  <si>
+    <t>30001011522964</t>
+  </si>
+  <si>
+    <t>30005131500889</t>
+  </si>
+  <si>
+    <t>30111011502386</t>
+  </si>
+  <si>
+    <t>18/10/2001</t>
+  </si>
+  <si>
+    <t>01/01/2001</t>
+  </si>
+  <si>
+    <t>19/09/2000</t>
+  </si>
+  <si>
+    <t>01/05/1999</t>
+  </si>
+  <si>
+    <t>15/07/2001</t>
+  </si>
+  <si>
+    <t>14/03/2001</t>
+  </si>
+  <si>
+    <t>21/05/2001</t>
+  </si>
+  <si>
+    <t>30/01/2000</t>
+  </si>
+  <si>
+    <t>10/09/2000</t>
+  </si>
+  <si>
+    <t>30/03/2001</t>
+  </si>
+  <si>
+    <t>03/11/2000</t>
+  </si>
+  <si>
+    <t>15/08/2000</t>
+  </si>
+  <si>
+    <t>17/08/2000</t>
+  </si>
+  <si>
+    <t>01/03/2001</t>
+  </si>
+  <si>
+    <t>15/12/1999</t>
+  </si>
+  <si>
+    <t>11/12/2000</t>
+  </si>
+  <si>
+    <t>18/01/2001</t>
+  </si>
+  <si>
+    <t>25/02/2001</t>
+  </si>
+  <si>
+    <t>23/02/2000</t>
+  </si>
+  <si>
+    <t>16/05/2001</t>
+  </si>
+  <si>
+    <t>01/06/2000</t>
+  </si>
+  <si>
+    <t>20/09/2000</t>
+  </si>
+  <si>
+    <t>19/07/2001</t>
+  </si>
+  <si>
+    <t>07/05/2000</t>
+  </si>
+  <si>
+    <t>29/01/2002</t>
+  </si>
+  <si>
+    <t>03/09/2001</t>
+  </si>
+  <si>
+    <t>03/01/2000</t>
+  </si>
+  <si>
+    <t>07/11/1999</t>
+  </si>
+  <si>
+    <t>25/03/2000</t>
+  </si>
+  <si>
+    <t>13/05/2000</t>
+  </si>
+  <si>
+    <t>01/11/2001</t>
   </si>
 </sst>
 </file>
@@ -1399,11 +1750,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3085,8 +3436,607 @@
         <v>234</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E120" s="2"/>
+    <row r="120" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/excelSheets/edit.xlsx
+++ b/src/assets/excelSheets/edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B7913-F0FA-40A0-9AE6-5FBA1EF5093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C339242-446D-4E2B-B592-D67476616544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="468">
   <si>
     <t>الإسم</t>
   </si>
@@ -303,9 +303,6 @@
   </si>
   <si>
     <t>آيه ابوزيد احمد ابوزيد سليم</t>
-  </si>
-  <si>
-    <t>نرمين احمد الشحات مجاهد</t>
   </si>
   <si>
     <t>مصطفى محمود عبدالتواب ابو المعاطى</t>
@@ -1536,7 +1533,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1750,11 +1758,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F157" sqref="F157"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1767,14 +1775,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1792,10 +1800,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1806,10 +1814,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1820,24 +1828,24 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1848,24 +1856,24 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,10 +1884,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1890,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1904,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1918,10 +1926,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1932,10 +1940,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1946,10 +1954,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1960,10 +1968,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1974,38 +1982,38 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2016,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2030,10 +2038,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2044,10 +2052,10 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2058,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2072,10 +2080,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2086,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2100,10 +2108,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2114,10 +2122,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2128,10 +2136,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2142,10 +2150,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2156,10 +2164,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2170,24 +2178,24 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2198,10 +2206,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2212,10 +2220,10 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2226,52 +2234,52 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2282,10 +2290,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2296,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2310,24 +2318,24 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2338,10 +2346,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2352,24 +2360,24 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2380,10 +2388,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,13 +2399,13 @@
         <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2408,10 +2416,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2422,10 +2430,10 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2436,10 +2444,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2450,10 +2458,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2464,10 +2472,10 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2478,10 +2486,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2492,10 +2500,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2506,10 +2514,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2520,10 +2528,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2534,10 +2542,10 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2548,10 +2556,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2562,24 +2570,24 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2590,10 +2598,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2604,10 +2612,10 @@
         <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2618,10 +2626,10 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2632,10 +2640,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2646,10 +2654,10 @@
         <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2660,10 +2668,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2674,24 +2682,24 @@
         <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2702,24 +2710,24 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2730,10 +2738,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,10 +2752,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2758,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2772,10 +2780,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2786,24 +2794,24 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2814,10 +2822,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2828,10 +2836,10 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2842,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2856,10 +2864,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2870,10 +2878,10 @@
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2884,10 +2892,10 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2898,10 +2906,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2912,10 +2920,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,10 +2934,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2940,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2954,10 +2962,10 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2968,10 +2976,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2982,10 +2990,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2996,10 +3004,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3010,10 +3018,10 @@
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3024,10 +3032,10 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3038,10 +3046,10 @@
         <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3052,10 +3060,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3069,7 +3077,7 @@
         <v>329</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>118</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3090,8 +3098,8 @@
       <c r="B95" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>3</v>
+      <c r="D95" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="E95" t="s">
         <v>331</v>
@@ -3102,13 +3110,13 @@
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D96" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="D96" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="E96" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>213</v>
@@ -3116,385 +3124,385 @@
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>13</v>
+        <v>97</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E98" t="s">
         <v>333</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D103" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D106" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>3</v>
+        <v>107</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D109" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D112" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>3</v>
+        <v>115</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D116" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E117" t="s">
-        <v>349</v>
+        <v>351</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>232</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E118" t="s">
-        <v>350</v>
+        <v>352</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>438</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E119" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>234</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>94</v>
+        <v>354</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>39</v>
+        <v>356</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>440</v>
+        <v>328</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>400</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>3</v>
@@ -3503,474 +3511,474 @@
         <v>441</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>261</v>
+        <v>344</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>118</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>442</v>
+        <v>310</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>3</v>
+        <v>362</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>345</v>
+        <v>443</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>3</v>
+        <v>363</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>44</v>
+        <v>365</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>10</v>
+        <v>366</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>448</v>
+        <v>264</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>3</v>
+        <v>370</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>393</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>394</v>
+        <v>373</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>3</v>
+        <v>374</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>10</v>
+        <v>377</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>454</v>
+        <v>310</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D145" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>311</v>
+        <v>458</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="3" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="D147" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>457</v>
+        <v>335</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>423</v>
+        <v>118</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>3</v>
+        <v>394</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>100</v>
+        <v>383</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>336</v>
+        <v>461</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>119</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>461</v>
+        <v>268</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>3</v>
+        <v>387</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>395</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>269</v>
+        <v>465</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>465</v>
+        <v>310</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>3</v>
@@ -3979,66 +3987,27 @@
         <v>466</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="160" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B160" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B161" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="G161" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="162" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B162" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/excelSheets/edit.xlsx
+++ b/src/assets/excelSheets/edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Front-End\Angular\graduationCertificate\graduationCertificate\sourceCode Versions\graduationCertificate\src\assets\excelSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C339242-446D-4E2B-B592-D67476616544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50446019-CF21-4987-B952-35271C0ACF51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="521">
   <si>
     <t>الإسم</t>
   </si>
@@ -392,9 +392,6 @@
     <t>29912191500626</t>
   </si>
   <si>
-    <t>30108151504418</t>
-  </si>
-  <si>
     <t>30103251500248</t>
   </si>
   <si>
@@ -1437,6 +1434,168 @@
   </si>
   <si>
     <t>01/11/2001</t>
+  </si>
+  <si>
+    <t>29910111500814</t>
+  </si>
+  <si>
+    <t>30101011505525</t>
+  </si>
+  <si>
+    <t>30011118801101</t>
+  </si>
+  <si>
+    <t>30004101501922</t>
+  </si>
+  <si>
+    <t>30003181500399</t>
+  </si>
+  <si>
+    <t>30003301500363</t>
+  </si>
+  <si>
+    <t>30108011503284</t>
+  </si>
+  <si>
+    <t>30101201501712</t>
+  </si>
+  <si>
+    <t>30109011504635</t>
+  </si>
+  <si>
+    <t>30109111501064</t>
+  </si>
+  <si>
+    <t>29912071500428</t>
+  </si>
+  <si>
+    <t>30101011515342</t>
+  </si>
+  <si>
+    <t>30106051200788</t>
+  </si>
+  <si>
+    <t>30011201501446</t>
+  </si>
+  <si>
+    <t>30107181501158</t>
+  </si>
+  <si>
+    <t>30007071500712</t>
+  </si>
+  <si>
+    <t>30002151500738</t>
+  </si>
+  <si>
+    <t>30101111500776</t>
+  </si>
+  <si>
+    <t>30010011535127</t>
+  </si>
+  <si>
+    <t>29810011506918</t>
+  </si>
+  <si>
+    <t>الخارج الأردن</t>
+  </si>
+  <si>
+    <t>فارس سعيد محمد احمد حميده</t>
+  </si>
+  <si>
+    <t>غاده علاء الدين بسيونى احمد شناق</t>
+  </si>
+  <si>
+    <t>ايمان السعيد السيد السيد عيد</t>
+  </si>
+  <si>
+    <t>حنان عاطف السعودى السيد عبدالهادى</t>
+  </si>
+  <si>
+    <t>محمد عماد عبد البارى بدر سليمان</t>
+  </si>
+  <si>
+    <t>ندى بسيونى عبد الغنى عباس التهامى</t>
+  </si>
+  <si>
+    <t>آلاء احمد رزق الدسوقى</t>
+  </si>
+  <si>
+    <t>حازم زكريا عبدالحى السيد حسين</t>
+  </si>
+  <si>
+    <t>ابراهيم عادل ابراهيم محمد ابوكرش</t>
+  </si>
+  <si>
+    <t>عائشه رمضان اسماعيل سلامه الشويحى</t>
+  </si>
+  <si>
+    <t>آيه السعيد انور عبدالعزيز عبده</t>
+  </si>
+  <si>
+    <t>آلاء عبدالمطلب قنعان ابراهيم ابوزيد</t>
+  </si>
+  <si>
+    <t>امل محمود حسانين صابر</t>
+  </si>
+  <si>
+    <t>آلاء عرجاوى احمد احمد عرجاوى</t>
+  </si>
+  <si>
+    <t>محمد عبد الحليم سعيد عبد الحليم</t>
+  </si>
+  <si>
+    <t>باسل رأفت عبدالمنعم عبدالفتاح فصاده</t>
+  </si>
+  <si>
+    <t>محمد احمد السعيد ابوشعيشع</t>
+  </si>
+  <si>
+    <t>احمد ياسر محمد محمد جمعه</t>
+  </si>
+  <si>
+    <t>فاطمة رأفت محمد صالح</t>
+  </si>
+  <si>
+    <t>احمد عبد الله عطا ميره</t>
+  </si>
+  <si>
+    <t>11/10/1999</t>
+  </si>
+  <si>
+    <t>11/11/2000</t>
+  </si>
+  <si>
+    <t>10/04/2000</t>
+  </si>
+  <si>
+    <t>18/03/2000</t>
+  </si>
+  <si>
+    <t>30/03/2000</t>
+  </si>
+  <si>
+    <t>20/01/2001</t>
+  </si>
+  <si>
+    <t>07/12/1999</t>
+  </si>
+  <si>
+    <t>05/06/2001</t>
+  </si>
+  <si>
+    <t>20/11/2000</t>
+  </si>
+  <si>
+    <t>18/07/2001</t>
+  </si>
+  <si>
+    <t>07/07/2000</t>
+  </si>
+  <si>
+    <t>11/01/2001</t>
+  </si>
+  <si>
+    <t>01/10/1998</t>
   </si>
 </sst>
 </file>
@@ -1758,11 +1917,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1775,14 +1934,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1800,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>119</v>
+        <v>250</v>
+      </c>
+      <c r="G2" s="3">
+        <v>30108151504418</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1814,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1828,24 +1987,24 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1856,24 +2015,24 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1884,10 +2043,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1898,10 +2057,10 @@
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1912,10 +2071,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1926,10 +2085,10 @@
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1940,10 +2099,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1954,10 +2113,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,10 +2127,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1982,38 +2141,38 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2024,10 +2183,10 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2038,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2052,10 +2211,10 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2066,10 +2225,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2080,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2094,10 +2253,10 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2108,10 +2267,10 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2122,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2136,10 +2295,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2150,10 +2309,10 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2164,10 +2323,10 @@
         <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2178,24 +2337,24 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2206,10 +2365,10 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2220,10 +2379,10 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2234,52 +2393,52 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2290,10 +2449,10 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2304,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2318,24 +2477,24 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2346,10 +2505,10 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2360,24 +2519,24 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2388,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2399,13 +2558,13 @@
         <v>41</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2416,10 +2575,10 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2430,10 +2589,10 @@
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2444,10 +2603,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2458,10 +2617,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2472,10 +2631,10 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2486,10 +2645,10 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2500,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2514,10 +2673,10 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2528,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2542,10 +2701,10 @@
         <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2556,10 +2715,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,24 +2729,24 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2598,10 +2757,10 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2612,10 +2771,10 @@
         <v>44</v>
       </c>
       <c r="E60" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2626,10 +2785,10 @@
         <v>44</v>
       </c>
       <c r="E61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2640,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2654,10 +2813,10 @@
         <v>44</v>
       </c>
       <c r="E63" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2668,10 +2827,10 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2682,24 +2841,24 @@
         <v>44</v>
       </c>
       <c r="E65" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2710,24 +2869,24 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2738,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2752,10 +2911,10 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2766,10 +2925,10 @@
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2780,10 +2939,10 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2794,24 +2953,24 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2822,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2836,10 +2995,10 @@
         <v>13</v>
       </c>
       <c r="E76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2850,10 +3009,10 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2864,10 +3023,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2878,10 +3037,10 @@
         <v>13</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2892,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2906,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2920,10 +3079,10 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2934,10 +3093,10 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2948,10 +3107,10 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2962,10 +3121,10 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2976,10 +3135,10 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2990,10 +3149,10 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3004,10 +3163,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3018,10 +3177,10 @@
         <v>85</v>
       </c>
       <c r="E89" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3032,10 +3191,10 @@
         <v>13</v>
       </c>
       <c r="E90" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3046,10 +3205,10 @@
         <v>88</v>
       </c>
       <c r="E91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3060,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3074,10 +3233,10 @@
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3088,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3102,10 +3261,10 @@
         <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3116,10 +3275,10 @@
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3130,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3144,10 +3303,10 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3158,10 +3317,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3172,10 +3331,10 @@
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3186,10 +3345,10 @@
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3200,10 +3359,10 @@
         <v>13</v>
       </c>
       <c r="E102" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3214,10 +3373,10 @@
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3228,10 +3387,10 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3242,10 +3401,10 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3256,10 +3415,10 @@
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3270,10 +3429,10 @@
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,10 +3443,10 @@
         <v>108</v>
       </c>
       <c r="E108" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3298,10 +3457,10 @@
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3312,10 +3471,10 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="111" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3326,10 +3485,10 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3340,10 +3499,10 @@
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3354,10 +3513,10 @@
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3368,10 +3527,10 @@
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="116" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3396,105 +3555,105 @@
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="117" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D118" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D120" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D121" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G123" s="3" t="s">
         <v>117</v>
@@ -3502,324 +3661,324 @@
     </row>
     <row r="124" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D124" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D130" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D141" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D146" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3830,7 +3989,7 @@
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>118</v>
@@ -3838,170 +3997,470 @@
     </row>
     <row r="148" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D150" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D155" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>508</v>
+      </c>
+      <c r="F160" s="2"/>
+      <c r="G160" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="G159" s="3" t="s">
-        <v>436</v>
+    </row>
+    <row r="161" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E161" t="s">
+        <v>437</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="E162" t="s">
+        <v>509</v>
+      </c>
+      <c r="F162" s="2"/>
+      <c r="G162" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" t="s">
+        <v>510</v>
+      </c>
+      <c r="F163" s="2"/>
+      <c r="G163" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E164" t="s">
+        <v>511</v>
+      </c>
+      <c r="F164" s="2"/>
+      <c r="G164" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E165" t="s">
+        <v>512</v>
+      </c>
+      <c r="F165" s="2"/>
+      <c r="G165" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" t="s">
+        <v>280</v>
+      </c>
+      <c r="F166" s="2"/>
+      <c r="G166" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E167" t="s">
+        <v>513</v>
+      </c>
+      <c r="F167" s="2"/>
+      <c r="G167" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E168" t="s">
+        <v>295</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E169" t="s">
+        <v>260</v>
+      </c>
+      <c r="F169" s="2"/>
+      <c r="G169" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E170" t="s">
+        <v>514</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>437</v>
+      </c>
+      <c r="F171" s="2"/>
+      <c r="G171" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E172" t="s">
+        <v>515</v>
+      </c>
+      <c r="F172" s="2"/>
+      <c r="G172" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E173" t="s">
+        <v>516</v>
+      </c>
+      <c r="F173" s="2"/>
+      <c r="G173" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" t="s">
+        <v>517</v>
+      </c>
+      <c r="F174" s="2"/>
+      <c r="G174" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" t="s">
+        <v>518</v>
+      </c>
+      <c r="F175" s="2"/>
+      <c r="G175" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" t="s">
+        <v>336</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" t="s">
+        <v>519</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" t="s">
+        <v>341</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E179" t="s">
+        <v>520</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="3" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>
